--- a/doc/statemachine.xlsx
+++ b/doc/statemachine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\3000-PowerController\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ATXPowerController\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F9E17-077F-4D4E-8FD0-3EF44F50DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C73FE-24CE-4D6B-8D99-52BF4ACB0EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="878" yWindow="1222" windowWidth="21600" windowHeight="12683" xr2:uid="{6379B341-8419-44FB-89B2-5BD6D1D005A7}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="21600" windowHeight="12683" xr2:uid="{6379B341-8419-44FB-89B2-5BD6D1D005A7}"/>
   </bookViews>
   <sheets>
     <sheet name="state machine" sheetId="1" r:id="rId1"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,10 @@
   </si>
   <si>
     <t>POWEROFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D53B51-A8F3-43DE-AA52-CB0D429871E2}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -716,16 +716,16 @@
     <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="D3" s="15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="17"/>
     </row>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -763,17 +763,17 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -787,17 +787,17 @@
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="5" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -829,17 +829,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -853,17 +853,17 @@
         <v>5</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="9" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/statemachine.xlsx
+++ b/doc/statemachine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ATXPowerController\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C73FE-24CE-4D6B-8D99-52BF4ACB0EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22B75AB-56DD-404C-9056-19998AEC7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="21600" windowHeight="12683" xr2:uid="{6379B341-8419-44FB-89B2-5BD6D1D005A7}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{6379B341-8419-44FB-89B2-5BD6D1D005A7}"/>
   </bookViews>
   <sheets>
     <sheet name="state machine" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATES</t>
+    <t>STATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +691,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/doc/statemachine.xlsx
+++ b/doc/statemachine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ATXPowerController\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E86CE-4D0C-4C96-9571-EF1B27904C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED601788-EF33-417E-8FB9-AC5EFFE1D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{6379B341-8419-44FB-89B2-5BD6D1D005A7}"/>
   </bookViews>
@@ -319,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,20 +332,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D53B51-A8F3-43DE-AA52-CB0D429871E2}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D3" sqref="D3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -715,154 +706,136 @@
     </row>
     <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="22.9" x14ac:dyDescent="0.4">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D9" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="9" t="s">
+    <row r="8" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9" t="str">
+      <c r="I8" s="6" t="str">
         <f>$F$4</f>
         <v>PowerButton</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
